--- a/ProjectData.xlsx
+++ b/ProjectData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="2664">
   <si>
     <t>000111</t>
   </si>
@@ -7489,21 +7489,6 @@
     <t>988564</t>
   </si>
   <si>
-    <t>989281</t>
-  </si>
-  <si>
-    <t>991600</t>
-  </si>
-  <si>
-    <t>998027</t>
-  </si>
-  <si>
-    <t>999997</t>
-  </si>
-  <si>
-    <t>999999</t>
-  </si>
-  <si>
     <t>002137</t>
   </si>
   <si>
@@ -8009,9 +7994,6 @@
   </si>
   <si>
     <t>948953</t>
-  </si>
-  <si>
-    <t>998116</t>
   </si>
   <si>
     <t>Item Code</t>
@@ -8031,8 +8013,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#0.##"/>
-    <numFmt numFmtId="169" formatCode="#0"/>
+    <numFmt numFmtId="164" formatCode="#0.##"/>
+    <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -8558,7 +8540,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -8568,17 +8550,14 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8922,10 +8901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2667"/>
+  <dimension ref="A1:D2661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2628" workbookViewId="0">
+      <selection activeCell="D2661" sqref="D2661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8933,21 +8912,21 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2666</v>
+        <v>2660</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2667</v>
+        <v>2661</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2668</v>
+        <v>2662</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2669</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9274,7 +9253,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="B25" s="3">
         <v>43.5</v>
@@ -9708,7 +9687,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="B56" s="3">
         <v>24.9</v>
@@ -9736,7 +9715,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="B58" s="3">
         <v>7.3</v>
@@ -9750,7 +9729,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="B59" s="3">
         <v>13.07</v>
@@ -9792,7 +9771,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="B62" s="3">
         <v>23.7</v>
@@ -11178,7 +11157,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="B161" s="5">
         <v>20</v>
@@ -11234,7 +11213,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="B165" s="3">
         <v>41.75</v>
@@ -11794,7 +11773,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="B205" s="3">
         <v>0.35</v>
@@ -12242,7 +12221,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
       <c r="B237" s="3">
         <v>21.51</v>
@@ -12564,7 +12543,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>2505</v>
+        <v>2500</v>
       </c>
       <c r="B260" s="3">
         <v>21.85</v>
@@ -12592,7 +12571,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>2506</v>
+        <v>2501</v>
       </c>
       <c r="B262" s="3">
         <v>26.5</v>
@@ -12816,7 +12795,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="B278" s="5">
         <v>8</v>
@@ -13236,7 +13215,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
       <c r="B308" s="3">
         <v>27.3</v>
@@ -13544,7 +13523,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>2509</v>
+        <v>2504</v>
       </c>
       <c r="B330" s="3">
         <v>14.26</v>
@@ -13908,7 +13887,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>2510</v>
+        <v>2505</v>
       </c>
       <c r="B356" s="3">
         <v>25.14</v>
@@ -14062,7 +14041,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>2511</v>
+        <v>2506</v>
       </c>
       <c r="B367" s="3">
         <v>12.23</v>
@@ -15728,7 +15707,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>2512</v>
+        <v>2507</v>
       </c>
       <c r="B486" s="3">
         <v>18.600000000000001</v>
@@ -16302,7 +16281,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>2513</v>
+        <v>2508</v>
       </c>
       <c r="B527" s="3">
         <v>10.75</v>
@@ -16400,7 +16379,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>2514</v>
+        <v>2509</v>
       </c>
       <c r="B534" s="5">
         <v>26</v>
@@ -16596,7 +16575,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="B548" s="5">
         <v>13</v>
@@ -16610,7 +16589,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="B549" s="3">
         <v>10.8</v>
@@ -16708,7 +16687,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="B556" s="3">
         <v>10.8</v>
@@ -17030,7 +17009,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="B579" s="5">
         <v>32</v>
@@ -17716,7 +17695,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="B628" s="3">
         <v>5.1100000000000003</v>
@@ -18220,7 +18199,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
       <c r="B664" s="3">
         <v>9.3000000000000007</v>
@@ -19186,7 +19165,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="2" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
       <c r="B733" s="5">
         <v>32</v>
@@ -19452,7 +19431,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" s="2" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="B752" s="3">
         <v>15.5</v>
@@ -19466,7 +19445,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="B753" s="3">
         <v>19.43</v>
@@ -19508,7 +19487,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
-        <v>2524</v>
+        <v>2519</v>
       </c>
       <c r="B756" s="3">
         <v>12.61</v>
@@ -19536,7 +19515,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="2" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="B758" s="3">
         <v>2.9</v>
@@ -20026,7 +20005,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="2" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
       <c r="B793" s="5">
         <v>36</v>
@@ -20166,7 +20145,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A803" s="2" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="B803" s="5">
         <v>41</v>
@@ -20250,7 +20229,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="B809" s="5">
         <v>10</v>
@@ -20726,7 +20705,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="B843" s="3">
         <v>11.03</v>
@@ -21146,7 +21125,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873" s="2" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="B873" s="3">
         <v>15.1</v>
@@ -21244,7 +21223,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A880" s="2" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="B880" s="3">
         <v>13.69</v>
@@ -21748,7 +21727,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A916" s="2" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
       <c r="B916" s="3">
         <v>14.11</v>
@@ -22574,7 +22553,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A975" s="2" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
       <c r="B975" s="3">
         <v>6.4</v>
@@ -22588,7 +22567,7 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A976" s="2" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="B976" s="3">
         <v>24.8</v>
@@ -22672,7 +22651,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A982" s="2" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
       <c r="B982" s="5">
         <v>33</v>
@@ -22728,7 +22707,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A986" s="2" t="s">
-        <v>2536</v>
+        <v>2531</v>
       </c>
       <c r="B986" s="3">
         <v>12.98</v>
@@ -22742,7 +22721,7 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A987" s="2" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
       <c r="B987" s="3">
         <v>16.100000000000001</v>
@@ -22882,7 +22861,7 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A997" s="2" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="B997" s="5">
         <v>21</v>
@@ -22896,7 +22875,7 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A998" s="2" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="B998" s="3">
         <v>25.72</v>
@@ -23414,7 +23393,7 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1035" s="2" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="B1035" s="3">
         <v>10.1</v>
@@ -23596,7 +23575,7 @@
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1048" s="2" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="B1048" s="3">
         <v>9.2200000000000006</v>
@@ -23610,7 +23589,7 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1049" s="2" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="B1049" s="5">
         <v>16</v>
@@ -23666,7 +23645,7 @@
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1053" s="2" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
       <c r="B1053" s="3">
         <v>4.84</v>
@@ -23694,7 +23673,7 @@
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1055" s="2" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="B1055" s="3">
         <v>12.5</v>
@@ -23792,7 +23771,7 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1062" s="2" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
       <c r="B1062" s="3">
         <v>9.3000000000000007</v>
@@ -24058,7 +24037,7 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1081" s="2" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="B1081" s="5">
         <v>36</v>
@@ -24324,7 +24303,7 @@
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1100" s="2" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
       <c r="B1100" s="3">
         <v>16.5</v>
@@ -24422,7 +24401,7 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1107" s="2" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
       <c r="B1107" s="3">
         <v>8.0399999999999991</v>
@@ -24436,7 +24415,7 @@
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1108" s="2" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
       <c r="B1108" s="3">
         <v>10.91</v>
@@ -24450,7 +24429,7 @@
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1109" s="2" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="B1109" s="3">
         <v>9.81</v>
@@ -24464,7 +24443,7 @@
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1110" s="2" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="B1110" s="3">
         <v>9.92</v>
@@ -24478,7 +24457,7 @@
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1111" s="2" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="B1111" s="3">
         <v>10.029999999999999</v>
@@ -24506,7 +24485,7 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1113" s="2" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="B1113" s="5">
         <v>7</v>
@@ -24520,7 +24499,7 @@
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1114" s="2" t="s">
-        <v>2554</v>
+        <v>2549</v>
       </c>
       <c r="B1114" s="5">
         <v>31</v>
@@ -24534,7 +24513,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1115" s="2" t="s">
-        <v>2555</v>
+        <v>2550</v>
       </c>
       <c r="B1115" s="3">
         <v>30.7</v>
@@ -24562,7 +24541,7 @@
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1117" s="2" t="s">
-        <v>2556</v>
+        <v>2551</v>
       </c>
       <c r="B1117" s="5">
         <v>21</v>
@@ -24576,7 +24555,7 @@
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1118" s="2" t="s">
-        <v>2557</v>
+        <v>2552</v>
       </c>
       <c r="B1118" s="5">
         <v>21</v>
@@ -24590,7 +24569,7 @@
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1119" s="2" t="s">
-        <v>2558</v>
+        <v>2553</v>
       </c>
       <c r="B1119" s="5">
         <v>11</v>
@@ -24632,7 +24611,7 @@
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1122" s="2" t="s">
-        <v>2559</v>
+        <v>2554</v>
       </c>
       <c r="B1122" s="3">
         <v>23.5</v>
@@ -24646,7 +24625,7 @@
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1123" s="2" t="s">
-        <v>2560</v>
+        <v>2555</v>
       </c>
       <c r="B1123" s="3">
         <v>33.799999999999997</v>
@@ -24660,7 +24639,7 @@
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1124" s="2" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="B1124" s="3">
         <v>9.6999999999999993</v>
@@ -24674,7 +24653,7 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1125" s="2" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="B1125" s="5">
         <v>35</v>
@@ -24688,7 +24667,7 @@
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1126" s="2" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="B1126" s="3">
         <v>5.4</v>
@@ -24702,7 +24681,7 @@
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1127" s="2" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
       <c r="B1127" s="3">
         <v>13.43</v>
@@ -24716,7 +24695,7 @@
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1128" s="2" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="B1128" s="3">
         <v>24.54</v>
@@ -24730,7 +24709,7 @@
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1129" s="2" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="B1129" s="5">
         <v>21</v>
@@ -24744,7 +24723,7 @@
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1130" s="2" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="B1130" s="3">
         <v>19.440000000000001</v>
@@ -24758,7 +24737,7 @@
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1131" s="2" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
       <c r="B1131" s="5">
         <v>8</v>
@@ -24772,7 +24751,7 @@
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1132" s="2" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="B1132" s="3">
         <v>13.05</v>
@@ -24786,7 +24765,7 @@
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1133" s="2" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
       <c r="B1133" s="5">
         <v>24</v>
@@ -24800,7 +24779,7 @@
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1134" s="2" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="B1134" s="3">
         <v>1.02</v>
@@ -24814,7 +24793,7 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1135" s="2" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="B1135" s="3">
         <v>60.65</v>
@@ -24828,7 +24807,7 @@
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1136" s="2" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="B1136" s="3">
         <v>1.06</v>
@@ -24842,7 +24821,7 @@
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1137" s="2" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="B1137" s="3">
         <v>48.76</v>
@@ -24856,7 +24835,7 @@
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1138" s="2" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="B1138" s="5">
         <v>28</v>
@@ -24870,7 +24849,7 @@
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1139" s="2" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="B1139" s="5">
         <v>25</v>
@@ -24884,7 +24863,7 @@
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1140" s="2" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="B1140" s="3">
         <v>41.75</v>
@@ -24898,7 +24877,7 @@
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1141" s="2" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="B1141" s="5">
         <v>33</v>
@@ -24912,7 +24891,7 @@
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1142" s="2" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="B1142" s="5">
         <v>17</v>
@@ -24926,7 +24905,7 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1143" s="2" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="B1143" s="5">
         <v>33</v>
@@ -24940,7 +24919,7 @@
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1144" s="2" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
       <c r="B1144" s="3">
         <v>4.45</v>
@@ -24954,7 +24933,7 @@
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1145" s="2" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="B1145" s="5">
         <v>26</v>
@@ -24968,7 +24947,7 @@
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1146" s="2" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="B1146" s="5">
         <v>26</v>
@@ -24982,7 +24961,7 @@
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1147" s="2" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="B1147" s="3">
         <v>1.8</v>
@@ -24996,7 +24975,7 @@
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1148" s="2" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="B1148" s="5">
         <v>17</v>
@@ -25010,7 +24989,7 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1149" s="2" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
       <c r="B1149" s="3">
         <v>11.91</v>
@@ -25024,7 +25003,7 @@
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1150" s="2" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
       <c r="B1150" s="5">
         <v>11</v>
@@ -25038,7 +25017,7 @@
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1151" s="2" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="B1151" s="3">
         <v>12.5</v>
@@ -25052,7 +25031,7 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1152" s="2" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="B1152" s="3">
         <v>17.39</v>
@@ -25066,7 +25045,7 @@
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1153" s="2" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="B1153" s="3">
         <v>31.5</v>
@@ -25080,7 +25059,7 @@
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1154" s="2" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
       <c r="B1154" s="3">
         <v>31.68</v>
@@ -25094,7 +25073,7 @@
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1155" s="2" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="B1155" s="3">
         <v>22.68</v>
@@ -25108,7 +25087,7 @@
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1156" s="2" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="B1156" s="5">
         <v>32</v>
@@ -25122,7 +25101,7 @@
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1157" s="2" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="B1157" s="5">
         <v>12</v>
@@ -25136,7 +25115,7 @@
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1158" s="2" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="B1158" s="5">
         <v>26</v>
@@ -25150,7 +25129,7 @@
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1159" s="2" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="B1159" s="5">
         <v>16</v>
@@ -25164,7 +25143,7 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1160" s="2" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="B1160" s="5">
         <v>16</v>
@@ -25178,7 +25157,7 @@
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1161" s="2" t="s">
-        <v>2598</v>
+        <v>2593</v>
       </c>
       <c r="B1161" s="3">
         <v>4.96</v>
@@ -25192,7 +25171,7 @@
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1162" s="2" t="s">
-        <v>2599</v>
+        <v>2594</v>
       </c>
       <c r="B1162" s="5">
         <v>21</v>
@@ -25206,7 +25185,7 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1163" s="2" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
       <c r="B1163" s="5">
         <v>21</v>
@@ -25220,7 +25199,7 @@
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1164" s="2" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
       <c r="B1164" s="5">
         <v>34</v>
@@ -25234,7 +25213,7 @@
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1165" s="2" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
       <c r="B1165" s="3">
         <v>29.6</v>
@@ -25248,7 +25227,7 @@
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1166" s="2" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="B1166" s="5">
         <v>7</v>
@@ -25262,7 +25241,7 @@
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1167" s="2" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="B1167" s="3">
         <v>23.68</v>
@@ -25276,7 +25255,7 @@
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1168" s="2" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="B1168" s="3">
         <v>31.25</v>
@@ -25290,7 +25269,7 @@
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1169" s="2" t="s">
-        <v>2606</v>
+        <v>2601</v>
       </c>
       <c r="B1169" s="3">
         <v>29.25</v>
@@ -25304,7 +25283,7 @@
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1170" s="2" t="s">
-        <v>2607</v>
+        <v>2602</v>
       </c>
       <c r="B1170" s="3">
         <v>28.25</v>
@@ -25318,7 +25297,7 @@
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1171" s="2" t="s">
-        <v>2608</v>
+        <v>2603</v>
       </c>
       <c r="B1171" s="3">
         <v>34.24</v>
@@ -25332,7 +25311,7 @@
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1172" s="2" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="B1172" s="3">
         <v>17.41</v>
@@ -25346,7 +25325,7 @@
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1173" s="2" t="s">
-        <v>2610</v>
+        <v>2605</v>
       </c>
       <c r="B1173" s="5">
         <v>42</v>
@@ -25360,7 +25339,7 @@
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1174" s="2" t="s">
-        <v>2611</v>
+        <v>2606</v>
       </c>
       <c r="B1174" s="5">
         <v>20</v>
@@ -25374,7 +25353,7 @@
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1175" s="2" t="s">
-        <v>2612</v>
+        <v>2607</v>
       </c>
       <c r="B1175" s="3">
         <v>28.6</v>
@@ -25388,7 +25367,7 @@
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1176" s="2" t="s">
-        <v>2613</v>
+        <v>2608</v>
       </c>
       <c r="B1176" s="3">
         <v>8.6999999999999993</v>
@@ -25402,7 +25381,7 @@
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1177" s="2" t="s">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="B1177" s="3">
         <v>8.16</v>
@@ -25416,7 +25395,7 @@
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1178" s="2" t="s">
-        <v>2615</v>
+        <v>2610</v>
       </c>
       <c r="B1178" s="3">
         <v>21.75</v>
@@ -25458,7 +25437,7 @@
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1181" s="2" t="s">
-        <v>2616</v>
+        <v>2611</v>
       </c>
       <c r="B1181" s="5">
         <v>38</v>
@@ -25808,7 +25787,7 @@
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1206" s="2" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
       <c r="B1206" s="5">
         <v>14</v>
@@ -26074,7 +26053,7 @@
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1225" s="2" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="B1225" s="5">
         <v>21</v>
@@ -26452,7 +26431,7 @@
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1252" s="2" t="s">
-        <v>2619</v>
+        <v>2614</v>
       </c>
       <c r="B1252" s="3">
         <v>18.88</v>
@@ -27474,7 +27453,7 @@
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1325" s="2" t="s">
-        <v>2620</v>
+        <v>2615</v>
       </c>
       <c r="B1325" s="3">
         <v>22.31</v>
@@ -27558,7 +27537,7 @@
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1331" s="2" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
       <c r="B1331" s="3">
         <v>13.78</v>
@@ -29392,7 +29371,7 @@
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1462" s="2" t="s">
-        <v>2622</v>
+        <v>2617</v>
       </c>
       <c r="B1462" s="3">
         <v>1.72</v>
@@ -29406,7 +29385,7 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1463" s="2" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
       <c r="B1463" s="3">
         <v>1.72</v>
@@ -29420,7 +29399,7 @@
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1464" s="2" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
       <c r="B1464" s="3">
         <v>1.72</v>
@@ -29434,7 +29413,7 @@
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1465" s="2" t="s">
-        <v>2625</v>
+        <v>2620</v>
       </c>
       <c r="B1465" s="3">
         <v>1.72</v>
@@ -29616,7 +29595,7 @@
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1478" s="2" t="s">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="B1478" s="3">
         <v>27.3</v>
@@ -29966,7 +29945,7 @@
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1503" s="2" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
       <c r="B1503" s="3">
         <v>16.91</v>
@@ -30330,7 +30309,7 @@
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1529" s="2" t="s">
-        <v>2628</v>
+        <v>2623</v>
       </c>
       <c r="B1529" s="5">
         <v>11</v>
@@ -31016,7 +30995,7 @@
     </row>
     <row r="1578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1578" s="2" t="s">
-        <v>2629</v>
+        <v>2624</v>
       </c>
       <c r="B1578" s="5">
         <v>5</v>
@@ -31030,7 +31009,7 @@
     </row>
     <row r="1579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1579" s="2" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
       <c r="B1579" s="5">
         <v>5</v>
@@ -31058,7 +31037,7 @@
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1581" s="2" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="B1581" s="3">
         <v>5.5</v>
@@ -31982,7 +31961,7 @@
     </row>
     <row r="1647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1647" s="2" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="B1647" s="3">
         <v>4.49</v>
@@ -32864,7 +32843,7 @@
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1710" s="2" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="B1710" s="3">
         <v>4.5</v>
@@ -32948,7 +32927,7 @@
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1716" s="2" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="B1716" s="3">
         <v>25.36</v>
@@ -33060,7 +33039,7 @@
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1724" s="2" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="B1724" s="3">
         <v>0.25</v>
@@ -33074,7 +33053,7 @@
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1725" s="2" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="B1725" s="3">
         <v>0.2</v>
@@ -33088,7 +33067,7 @@
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1726" s="2" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="B1726" s="3">
         <v>0.25</v>
@@ -33410,7 +33389,7 @@
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1749" s="2" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
       <c r="B1749" s="3">
         <v>36.700000000000003</v>
@@ -34082,7 +34061,7 @@
     </row>
     <row r="1797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1797" s="2" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
       <c r="B1797" s="3">
         <v>13.46</v>
@@ -34110,7 +34089,7 @@
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1799" s="2" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
       <c r="B1799" s="3">
         <v>12.4</v>
@@ -35510,7 +35489,7 @@
     </row>
     <row r="1899" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1899" s="2" t="s">
-        <v>2641</v>
+        <v>2636</v>
       </c>
       <c r="B1899" s="3">
         <v>34.6</v>
@@ -36126,7 +36105,7 @@
     </row>
     <row r="1943" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1943" s="2" t="s">
-        <v>2642</v>
+        <v>2637</v>
       </c>
       <c r="B1943" s="5">
         <v>48</v>
@@ -36378,7 +36357,7 @@
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1961" s="2" t="s">
-        <v>2643</v>
+        <v>2638</v>
       </c>
       <c r="B1961" s="3">
         <v>17.11</v>
@@ -36602,7 +36581,7 @@
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1977" s="2" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
       <c r="B1977" s="3">
         <v>43.7</v>
@@ -37820,7 +37799,7 @@
     </row>
     <row r="2064" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2064" s="2" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
       <c r="B2064" s="3">
         <v>42.2</v>
@@ -38394,7 +38373,7 @@
     </row>
     <row r="2105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2105" s="2" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
       <c r="B2105" s="3">
         <v>9.3000000000000007</v>
@@ -38716,7 +38695,7 @@
     </row>
     <row r="2128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2128" s="2" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
       <c r="B2128" s="3">
         <v>3.2</v>
@@ -38940,7 +38919,7 @@
     </row>
     <row r="2144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2144" s="2" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="B2144" s="3">
         <v>16.3</v>
@@ -39080,7 +39059,7 @@
     </row>
     <row r="2154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2154" s="2" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="B2154" s="3">
         <v>0.3</v>
@@ -39150,7 +39129,7 @@
     </row>
     <row r="2159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2159" s="2" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="B2159" s="3">
         <v>0.25</v>
@@ -40774,7 +40753,7 @@
     </row>
     <row r="2275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2275" s="2" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
       <c r="B2275" s="5">
         <v>34</v>
@@ -41558,7 +41537,7 @@
     </row>
     <row r="2331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2331" s="2" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
       <c r="B2331" s="3">
         <v>34.4</v>
@@ -42160,7 +42139,7 @@
     </row>
     <row r="2374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2374" s="2" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
       <c r="B2374" s="3">
         <v>18.899999999999999</v>
@@ -42188,7 +42167,7 @@
     </row>
     <row r="2376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2376" s="2" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
       <c r="B2376" s="3">
         <v>31.66</v>
@@ -43224,7 +43203,7 @@
     </row>
     <row r="2450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2450" s="2" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
       <c r="B2450" s="3">
         <v>15.1</v>
@@ -43238,7 +43217,7 @@
     </row>
     <row r="2451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2451" s="2" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="B2451" s="3">
         <v>22.7</v>
@@ -43266,7 +43245,7 @@
     </row>
     <row r="2453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2453" s="2" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
       <c r="B2453" s="3">
         <v>15.1</v>
@@ -43308,7 +43287,7 @@
     </row>
     <row r="2456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2456" s="2" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
       <c r="B2456" s="5">
         <v>37</v>
@@ -43770,7 +43749,7 @@
     </row>
     <row r="2489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2489" s="2" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="B2489" s="3">
         <v>3.1</v>
@@ -43904,6 +43883,9 @@
       <c r="C2498" s="4">
         <v>36</v>
       </c>
+      <c r="D2498">
+        <v>0</v>
+      </c>
     </row>
     <row r="2499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2499" s="2" t="s">
@@ -43915,6 +43897,9 @@
       <c r="C2499" s="4">
         <v>131</v>
       </c>
+      <c r="D2499">
+        <v>0</v>
+      </c>
     </row>
     <row r="2500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2500" s="2" t="s">
@@ -43926,6 +43911,9 @@
       <c r="C2500" s="4">
         <v>24</v>
       </c>
+      <c r="D2500">
+        <v>0</v>
+      </c>
     </row>
     <row r="2501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2501" s="2" t="s">
@@ -43937,6 +43925,9 @@
       <c r="C2501" s="4">
         <v>52</v>
       </c>
+      <c r="D2501">
+        <v>0</v>
+      </c>
     </row>
     <row r="2502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2502" s="2" t="s">
@@ -43948,6 +43939,9 @@
       <c r="C2502" s="4">
         <v>356</v>
       </c>
+      <c r="D2502">
+        <v>0</v>
+      </c>
     </row>
     <row r="2503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2503" s="2" t="s">
@@ -43959,6 +43953,9 @@
       <c r="C2503" s="4">
         <v>178</v>
       </c>
+      <c r="D2503">
+        <v>0</v>
+      </c>
     </row>
     <row r="2504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2504" s="2" t="s">
@@ -43970,6 +43967,9 @@
       <c r="C2504" s="4">
         <v>102</v>
       </c>
+      <c r="D2504">
+        <v>0</v>
+      </c>
     </row>
     <row r="2505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2505" s="2" t="s">
@@ -43981,6 +43981,9 @@
       <c r="C2505" s="4">
         <v>326</v>
       </c>
+      <c r="D2505">
+        <v>0</v>
+      </c>
     </row>
     <row r="2506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2506" s="2" t="s">
@@ -43992,6 +43995,9 @@
       <c r="C2506" s="4">
         <v>291</v>
       </c>
+      <c r="D2506">
+        <v>0</v>
+      </c>
     </row>
     <row r="2507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2507" s="2" t="s">
@@ -44003,6 +44009,9 @@
       <c r="C2507" s="4">
         <v>9</v>
       </c>
+      <c r="D2507">
+        <v>0</v>
+      </c>
     </row>
     <row r="2508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2508" s="2" t="s">
@@ -44014,6 +44023,9 @@
       <c r="C2508" s="4">
         <v>378</v>
       </c>
+      <c r="D2508">
+        <v>0</v>
+      </c>
     </row>
     <row r="2509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2509" s="2" t="s">
@@ -44025,6 +44037,9 @@
       <c r="C2509" s="4">
         <v>605</v>
       </c>
+      <c r="D2509">
+        <v>0</v>
+      </c>
     </row>
     <row r="2510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2510" s="2" t="s">
@@ -44036,6 +44051,9 @@
       <c r="C2510" s="4">
         <v>140</v>
       </c>
+      <c r="D2510">
+        <v>2</v>
+      </c>
     </row>
     <row r="2511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2511" s="2" t="s">
@@ -44047,6 +44065,9 @@
       <c r="C2511" s="4">
         <v>283</v>
       </c>
+      <c r="D2511">
+        <v>0</v>
+      </c>
     </row>
     <row r="2512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2512" s="2" t="s">
@@ -44058,8 +44079,11 @@
       <c r="C2512" s="4">
         <v>490</v>
       </c>
-    </row>
-    <row r="2513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2513" s="2" t="s">
         <v>2347</v>
       </c>
@@ -44069,8 +44093,11 @@
       <c r="C2513" s="4">
         <v>5153</v>
       </c>
-    </row>
-    <row r="2514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2514" s="2" t="s">
         <v>2348</v>
       </c>
@@ -44080,8 +44107,11 @@
       <c r="C2514" s="4">
         <v>240</v>
       </c>
-    </row>
-    <row r="2515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2515" s="2" t="s">
         <v>2349</v>
       </c>
@@ -44091,8 +44121,11 @@
       <c r="C2515" s="4">
         <v>2281</v>
       </c>
-    </row>
-    <row r="2516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2516" s="2" t="s">
         <v>2350</v>
       </c>
@@ -44102,8 +44135,11 @@
       <c r="C2516" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="2517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2517" s="2" t="s">
         <v>2351</v>
       </c>
@@ -44113,8 +44149,11 @@
       <c r="C2517" s="4">
         <v>2134</v>
       </c>
-    </row>
-    <row r="2518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2518" s="2" t="s">
         <v>2352</v>
       </c>
@@ -44124,8 +44163,11 @@
       <c r="C2518" s="4">
         <v>1114</v>
       </c>
-    </row>
-    <row r="2519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2519" s="2" t="s">
         <v>2353</v>
       </c>
@@ -44135,8 +44177,11 @@
       <c r="C2519" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="2520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2520" s="2" t="s">
         <v>2354</v>
       </c>
@@ -44146,8 +44191,11 @@
       <c r="C2520" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="2521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2521" s="2" t="s">
         <v>2355</v>
       </c>
@@ -44157,8 +44205,11 @@
       <c r="C2521" s="4">
         <v>598</v>
       </c>
-    </row>
-    <row r="2522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2522" s="2" t="s">
         <v>2356</v>
       </c>
@@ -44168,8 +44219,11 @@
       <c r="C2522" s="4">
         <v>493</v>
       </c>
-    </row>
-    <row r="2523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2523" s="2" t="s">
         <v>2357</v>
       </c>
@@ -44179,8 +44233,11 @@
       <c r="C2523" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2524" s="2" t="s">
         <v>2358</v>
       </c>
@@ -44190,8 +44247,11 @@
       <c r="C2524" s="4">
         <v>1022</v>
       </c>
-    </row>
-    <row r="2525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2525" s="2" t="s">
         <v>2359</v>
       </c>
@@ -44201,8 +44261,11 @@
       <c r="C2525" s="4">
         <v>733</v>
       </c>
-    </row>
-    <row r="2526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2526" s="2" t="s">
         <v>2360</v>
       </c>
@@ -44212,8 +44275,11 @@
       <c r="C2526" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="2527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2527" s="2" t="s">
         <v>2361</v>
       </c>
@@ -44223,8 +44289,11 @@
       <c r="C2527" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="2528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2528" s="2" t="s">
         <v>2362</v>
       </c>
@@ -44234,8 +44303,11 @@
       <c r="C2528" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="2529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2529" s="2" t="s">
         <v>2363</v>
       </c>
@@ -44245,8 +44317,11 @@
       <c r="C2529" s="4">
         <v>3457</v>
       </c>
-    </row>
-    <row r="2530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2530" s="2" t="s">
         <v>2364</v>
       </c>
@@ -44256,8 +44331,11 @@
       <c r="C2530" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="2531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2531" s="2" t="s">
         <v>2365</v>
       </c>
@@ -44267,8 +44345,11 @@
       <c r="C2531" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2532" s="2" t="s">
         <v>2366</v>
       </c>
@@ -44278,8 +44359,11 @@
       <c r="C2532" s="4">
         <v>149</v>
       </c>
-    </row>
-    <row r="2533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2533" s="2" t="s">
         <v>2367</v>
       </c>
@@ -44289,8 +44373,11 @@
       <c r="C2533" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="2534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2534" s="2" t="s">
         <v>2368</v>
       </c>
@@ -44300,8 +44387,11 @@
       <c r="C2534" s="4">
         <v>155</v>
       </c>
-    </row>
-    <row r="2535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2535" s="2" t="s">
         <v>2369</v>
       </c>
@@ -44311,8 +44401,11 @@
       <c r="C2535" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="2536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2536" s="2" t="s">
         <v>2370</v>
       </c>
@@ -44322,8 +44415,11 @@
       <c r="C2536" s="4">
         <v>93</v>
       </c>
-    </row>
-    <row r="2537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2537" s="2" t="s">
         <v>2371</v>
       </c>
@@ -44333,8 +44429,11 @@
       <c r="C2537" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="2538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2538" s="2" t="s">
         <v>2372</v>
       </c>
@@ -44344,8 +44443,11 @@
       <c r="C2538" s="4">
         <v>117</v>
       </c>
-    </row>
-    <row r="2539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2539" s="2" t="s">
         <v>2373</v>
       </c>
@@ -44355,8 +44457,11 @@
       <c r="C2539" s="4">
         <v>306</v>
       </c>
-    </row>
-    <row r="2540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2540" s="2" t="s">
         <v>2374</v>
       </c>
@@ -44366,8 +44471,11 @@
       <c r="C2540" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="2541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2541" s="2" t="s">
         <v>2375</v>
       </c>
@@ -44377,8 +44485,11 @@
       <c r="C2541" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2542" s="2" t="s">
         <v>2376</v>
       </c>
@@ -44388,8 +44499,11 @@
       <c r="C2542" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="2543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2543" s="2" t="s">
         <v>2377</v>
       </c>
@@ -44399,8 +44513,11 @@
       <c r="C2543" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="2544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2544" s="2" t="s">
         <v>2378</v>
       </c>
@@ -44410,8 +44527,11 @@
       <c r="C2544" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2545" s="2" t="s">
         <v>2379</v>
       </c>
@@ -44421,8 +44541,11 @@
       <c r="C2545" s="4">
         <v>9197</v>
       </c>
-    </row>
-    <row r="2546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2545">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2546" s="2" t="s">
         <v>2380</v>
       </c>
@@ -44432,8 +44555,11 @@
       <c r="C2546" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="2547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2547" s="2" t="s">
         <v>2381</v>
       </c>
@@ -44443,8 +44569,11 @@
       <c r="C2547" s="4">
         <v>212</v>
       </c>
-    </row>
-    <row r="2548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2548" s="2" t="s">
         <v>2382</v>
       </c>
@@ -44454,8 +44583,11 @@
       <c r="C2548" s="4">
         <v>902</v>
       </c>
-    </row>
-    <row r="2549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2549" s="2" t="s">
         <v>2383</v>
       </c>
@@ -44465,8 +44597,11 @@
       <c r="C2549" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="2550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2550" s="2" t="s">
         <v>2384</v>
       </c>
@@ -44476,8 +44611,11 @@
       <c r="C2550" s="4">
         <v>139</v>
       </c>
-    </row>
-    <row r="2551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2551" s="2" t="s">
         <v>2385</v>
       </c>
@@ -44487,8 +44625,11 @@
       <c r="C2551" s="4">
         <v>174</v>
       </c>
-    </row>
-    <row r="2552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2552" s="2" t="s">
         <v>2386</v>
       </c>
@@ -44498,8 +44639,11 @@
       <c r="C2552" s="4">
         <v>981</v>
       </c>
-    </row>
-    <row r="2553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2553" s="2" t="s">
         <v>2387</v>
       </c>
@@ -44509,8 +44653,11 @@
       <c r="C2553" s="4">
         <v>269</v>
       </c>
-    </row>
-    <row r="2554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2554" s="2" t="s">
         <v>2388</v>
       </c>
@@ -44520,8 +44667,11 @@
       <c r="C2554" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="2555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2555" s="2" t="s">
         <v>2389</v>
       </c>
@@ -44531,8 +44681,11 @@
       <c r="C2555" s="4">
         <v>341</v>
       </c>
-    </row>
-    <row r="2556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2556" s="2" t="s">
         <v>2390</v>
       </c>
@@ -44542,8 +44695,11 @@
       <c r="C2556" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="2557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2557" s="2" t="s">
         <v>2391</v>
       </c>
@@ -44553,8 +44709,11 @@
       <c r="C2557" s="4">
         <v>1088</v>
       </c>
-    </row>
-    <row r="2558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2557">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2558" s="2" t="s">
         <v>2392</v>
       </c>
@@ -44564,8 +44723,11 @@
       <c r="C2558" s="4">
         <v>3784</v>
       </c>
-    </row>
-    <row r="2559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2559" s="2" t="s">
         <v>2393</v>
       </c>
@@ -44575,8 +44737,11 @@
       <c r="C2559" s="4">
         <v>113</v>
       </c>
-    </row>
-    <row r="2560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2560" s="2" t="s">
         <v>2394</v>
       </c>
@@ -44586,8 +44751,11 @@
       <c r="C2560" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="2561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2561" s="2" t="s">
         <v>2395</v>
       </c>
@@ -44597,8 +44765,11 @@
       <c r="C2561" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="2562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2562" s="2" t="s">
         <v>2396</v>
       </c>
@@ -44608,8 +44779,11 @@
       <c r="C2562" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="2563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2563" s="2" t="s">
         <v>2397</v>
       </c>
@@ -44619,8 +44793,11 @@
       <c r="C2563" s="4">
         <v>318</v>
       </c>
-    </row>
-    <row r="2564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2564" s="2" t="s">
         <v>2398</v>
       </c>
@@ -44630,8 +44807,11 @@
       <c r="C2564" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="2565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2565" s="2" t="s">
         <v>2399</v>
       </c>
@@ -44641,8 +44821,11 @@
       <c r="C2565" s="4">
         <v>1872</v>
       </c>
-    </row>
-    <row r="2566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2566" s="2" t="s">
         <v>2400</v>
       </c>
@@ -44652,8 +44835,11 @@
       <c r="C2566" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="2567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2567" s="2" t="s">
         <v>2401</v>
       </c>
@@ -44663,8 +44849,11 @@
       <c r="C2567" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="2568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2568" s="2" t="s">
         <v>2402</v>
       </c>
@@ -44674,8 +44863,11 @@
       <c r="C2568" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="2569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2569" s="2" t="s">
         <v>2403</v>
       </c>
@@ -44685,8 +44877,11 @@
       <c r="C2569" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="2570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2570" s="2" t="s">
         <v>2404</v>
       </c>
@@ -44696,8 +44891,11 @@
       <c r="C2570" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="2571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2571" s="2" t="s">
         <v>2405</v>
       </c>
@@ -44707,8 +44905,11 @@
       <c r="C2571" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="2572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2572" s="2" t="s">
         <v>2406</v>
       </c>
@@ -44718,8 +44919,11 @@
       <c r="C2572" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2573" s="2" t="s">
         <v>2407</v>
       </c>
@@ -44729,8 +44933,11 @@
       <c r="C2573" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="2574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2574" s="2" t="s">
         <v>2408</v>
       </c>
@@ -44740,8 +44947,11 @@
       <c r="C2574" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2575" s="2" t="s">
         <v>2409</v>
       </c>
@@ -44751,8 +44961,11 @@
       <c r="C2575" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="2576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2576" s="2" t="s">
         <v>2410</v>
       </c>
@@ -44762,8 +44975,11 @@
       <c r="C2576" s="4">
         <v>680</v>
       </c>
-    </row>
-    <row r="2577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2577" s="2" t="s">
         <v>2411</v>
       </c>
@@ -44773,8 +44989,11 @@
       <c r="C2577" s="4">
         <v>928</v>
       </c>
-    </row>
-    <row r="2578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2578" s="2" t="s">
         <v>2412</v>
       </c>
@@ -44784,8 +45003,11 @@
       <c r="C2578" s="4">
         <v>293</v>
       </c>
-    </row>
-    <row r="2579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2579" s="2" t="s">
         <v>2413</v>
       </c>
@@ -44795,8 +45017,11 @@
       <c r="C2579" s="4">
         <v>285</v>
       </c>
-    </row>
-    <row r="2580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2580" s="2" t="s">
         <v>2414</v>
       </c>
@@ -44806,8 +45031,11 @@
       <c r="C2580" s="4">
         <v>291</v>
       </c>
-    </row>
-    <row r="2581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2581" s="2" t="s">
         <v>2415</v>
       </c>
@@ -44817,8 +45045,11 @@
       <c r="C2581" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="2582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2582" s="2" t="s">
         <v>2416</v>
       </c>
@@ -44828,8 +45059,11 @@
       <c r="C2582" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2583" s="2" t="s">
         <v>2417</v>
       </c>
@@ -44839,8 +45073,11 @@
       <c r="C2583" s="4">
         <v>1086</v>
       </c>
-    </row>
-    <row r="2584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2584" s="2" t="s">
         <v>2418</v>
       </c>
@@ -44850,8 +45087,11 @@
       <c r="C2584" s="4">
         <v>2489</v>
       </c>
-    </row>
-    <row r="2585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2584">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2585" s="2" t="s">
         <v>2419</v>
       </c>
@@ -44861,8 +45101,11 @@
       <c r="C2585" s="4">
         <v>524</v>
       </c>
-    </row>
-    <row r="2586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2586" s="2" t="s">
         <v>2420</v>
       </c>
@@ -44872,8 +45115,11 @@
       <c r="C2586" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="2587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2587" s="2" t="s">
         <v>2421</v>
       </c>
@@ -44883,8 +45129,11 @@
       <c r="C2587" s="4">
         <v>2029</v>
       </c>
-    </row>
-    <row r="2588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2588" s="2" t="s">
         <v>2422</v>
       </c>
@@ -44894,8 +45143,11 @@
       <c r="C2588" s="4">
         <v>9808</v>
       </c>
-    </row>
-    <row r="2589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2589" s="2" t="s">
         <v>2423</v>
       </c>
@@ -44905,8 +45157,11 @@
       <c r="C2589" s="4">
         <v>211</v>
       </c>
-    </row>
-    <row r="2590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2590" s="2" t="s">
         <v>2424</v>
       </c>
@@ -44916,8 +45171,11 @@
       <c r="C2590" s="4">
         <v>303</v>
       </c>
-    </row>
-    <row r="2591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2591" s="2" t="s">
         <v>2425</v>
       </c>
@@ -44927,8 +45185,11 @@
       <c r="C2591" s="4">
         <v>216</v>
       </c>
-    </row>
-    <row r="2592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2592" s="2" t="s">
         <v>2426</v>
       </c>
@@ -44938,8 +45199,11 @@
       <c r="C2592" s="4">
         <v>2449</v>
       </c>
-    </row>
-    <row r="2593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2593" s="2" t="s">
         <v>2427</v>
       </c>
@@ -44949,8 +45213,11 @@
       <c r="C2593" s="4">
         <v>5258</v>
       </c>
-    </row>
-    <row r="2594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2594" s="2" t="s">
         <v>2428</v>
       </c>
@@ -44960,8 +45227,11 @@
       <c r="C2594" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="2595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2595" s="2" t="s">
         <v>2429</v>
       </c>
@@ -44971,10 +45241,13 @@
       <c r="C2595" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2596" s="2" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="B2596" s="5">
         <v>16</v>
@@ -44982,8 +45255,11 @@
       <c r="C2596" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2597" s="2" t="s">
         <v>2430</v>
       </c>
@@ -44993,8 +45269,11 @@
       <c r="C2597" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="2598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2598" s="2" t="s">
         <v>2431</v>
       </c>
@@ -45004,8 +45283,11 @@
       <c r="C2598" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2599" s="2" t="s">
         <v>2432</v>
       </c>
@@ -45015,8 +45297,11 @@
       <c r="C2599" s="4">
         <v>550</v>
       </c>
-    </row>
-    <row r="2600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2600" s="2" t="s">
         <v>2433</v>
       </c>
@@ -45026,8 +45311,11 @@
       <c r="C2600" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2601" s="2" t="s">
         <v>2434</v>
       </c>
@@ -45037,8 +45325,11 @@
       <c r="C2601" s="4">
         <v>3926</v>
       </c>
-    </row>
-    <row r="2602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2602" s="2" t="s">
         <v>2435</v>
       </c>
@@ -45048,8 +45339,11 @@
       <c r="C2602" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2603" s="2" t="s">
         <v>2436</v>
       </c>
@@ -45059,8 +45353,11 @@
       <c r="C2603" s="4">
         <v>3719</v>
       </c>
-    </row>
-    <row r="2604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2604" s="2" t="s">
         <v>2437</v>
       </c>
@@ -45070,8 +45367,11 @@
       <c r="C2604" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2605" s="2" t="s">
         <v>2438</v>
       </c>
@@ -45081,8 +45381,11 @@
       <c r="C2605" s="4">
         <v>570</v>
       </c>
-    </row>
-    <row r="2606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2606" s="2" t="s">
         <v>2439</v>
       </c>
@@ -45092,8 +45395,11 @@
       <c r="C2606" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2607" s="2" t="s">
         <v>2440</v>
       </c>
@@ -45103,8 +45409,11 @@
       <c r="C2607" s="4">
         <v>5569</v>
       </c>
-    </row>
-    <row r="2608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2608" s="2" t="s">
         <v>2441</v>
       </c>
@@ -45114,8 +45423,11 @@
       <c r="C2608" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="2609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2609" s="2" t="s">
         <v>2442</v>
       </c>
@@ -45125,8 +45437,11 @@
       <c r="C2609" s="4">
         <v>919</v>
       </c>
-    </row>
-    <row r="2610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2610" s="2" t="s">
         <v>2443</v>
       </c>
@@ -45136,8 +45451,11 @@
       <c r="C2610" s="4">
         <v>1283</v>
       </c>
-    </row>
-    <row r="2611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2611" s="2" t="s">
         <v>2444</v>
       </c>
@@ -45147,8 +45465,11 @@
       <c r="C2611" s="4">
         <v>422</v>
       </c>
-    </row>
-    <row r="2612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2612" s="2" t="s">
         <v>2445</v>
       </c>
@@ -45158,10 +45479,13 @@
       <c r="C2612" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2613" s="2" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
       <c r="B2613" s="3">
         <v>1.02</v>
@@ -45169,8 +45493,11 @@
       <c r="C2613" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2614" s="2" t="s">
         <v>2446</v>
       </c>
@@ -45180,8 +45507,11 @@
       <c r="C2614" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2615" s="2" t="s">
         <v>2447</v>
       </c>
@@ -45191,10 +45521,13 @@
       <c r="C2615" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="2616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2616" s="2" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
       <c r="B2616" s="3">
         <v>28.61</v>
@@ -45202,8 +45535,11 @@
       <c r="C2616" s="4">
         <v>469</v>
       </c>
-    </row>
-    <row r="2617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2617" s="2" t="s">
         <v>2448</v>
       </c>
@@ -45213,8 +45549,11 @@
       <c r="C2617" s="4">
         <v>1784</v>
       </c>
-    </row>
-    <row r="2618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2618" s="2" t="s">
         <v>2449</v>
       </c>
@@ -45224,8 +45563,11 @@
       <c r="C2618" s="4">
         <v>1739</v>
       </c>
-    </row>
-    <row r="2619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2619" s="2" t="s">
         <v>2450</v>
       </c>
@@ -45235,8 +45577,11 @@
       <c r="C2619" s="4">
         <v>416</v>
       </c>
-    </row>
-    <row r="2620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2620" s="2" t="s">
         <v>2451</v>
       </c>
@@ -45246,8 +45591,11 @@
       <c r="C2620" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="2621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2621" s="2" t="s">
         <v>2452</v>
       </c>
@@ -45257,8 +45605,11 @@
       <c r="C2621" s="4">
         <v>247</v>
       </c>
-    </row>
-    <row r="2622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2622" s="2" t="s">
         <v>2453</v>
       </c>
@@ -45268,8 +45619,11 @@
       <c r="C2622" s="4">
         <v>646</v>
       </c>
-    </row>
-    <row r="2623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2623" s="2" t="s">
         <v>2454</v>
       </c>
@@ -45279,8 +45633,11 @@
       <c r="C2623" s="4">
         <v>1729</v>
       </c>
-    </row>
-    <row r="2624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2624" s="2" t="s">
         <v>2455</v>
       </c>
@@ -45290,8 +45647,11 @@
       <c r="C2624" s="4">
         <v>785</v>
       </c>
-    </row>
-    <row r="2625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2625" s="2" t="s">
         <v>2456</v>
       </c>
@@ -45301,8 +45661,11 @@
       <c r="C2625" s="4">
         <v>1247</v>
       </c>
-    </row>
-    <row r="2626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2626" s="2" t="s">
         <v>2457</v>
       </c>
@@ -45312,8 +45675,11 @@
       <c r="C2626" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2627" s="2" t="s">
         <v>2458</v>
       </c>
@@ -45323,8 +45689,11 @@
       <c r="C2627" s="4">
         <v>9649</v>
       </c>
-    </row>
-    <row r="2628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2628" s="2" t="s">
         <v>2459</v>
       </c>
@@ -45334,8 +45703,11 @@
       <c r="C2628" s="4">
         <v>960</v>
       </c>
-    </row>
-    <row r="2629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2629" s="2" t="s">
         <v>2460</v>
       </c>
@@ -45345,8 +45717,11 @@
       <c r="C2629" s="4">
         <v>3050</v>
       </c>
-    </row>
-    <row r="2630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2630" s="2" t="s">
         <v>2461</v>
       </c>
@@ -45356,10 +45731,13 @@
       <c r="C2630" s="4">
         <v>1152</v>
       </c>
-    </row>
-    <row r="2631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2631" s="2" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
       <c r="B2631" s="5">
         <v>26</v>
@@ -45367,8 +45745,11 @@
       <c r="C2631" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="2632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2632" s="2" t="s">
         <v>2462</v>
       </c>
@@ -45378,8 +45759,11 @@
       <c r="C2632" s="4">
         <v>1294</v>
       </c>
-    </row>
-    <row r="2633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2633" s="2" t="s">
         <v>2463</v>
       </c>
@@ -45389,8 +45773,11 @@
       <c r="C2633" s="4">
         <v>395</v>
       </c>
-    </row>
-    <row r="2634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2634" s="2" t="s">
         <v>2464</v>
       </c>
@@ -45400,8 +45787,11 @@
       <c r="C2634" s="4">
         <v>2587</v>
       </c>
-    </row>
-    <row r="2635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2635" s="2" t="s">
         <v>2465</v>
       </c>
@@ -45411,8 +45801,11 @@
       <c r="C2635" s="4">
         <v>299</v>
       </c>
-    </row>
-    <row r="2636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2636" s="2" t="s">
         <v>2466</v>
       </c>
@@ -45422,10 +45815,13 @@
       <c r="C2636" s="4">
         <v>1080</v>
       </c>
-    </row>
-    <row r="2637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2637" s="2" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
       <c r="B2637" s="3">
         <v>50.8</v>
@@ -45433,8 +45829,11 @@
       <c r="C2637" s="4">
         <v>329</v>
       </c>
-    </row>
-    <row r="2638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2638" s="2" t="s">
         <v>2467</v>
       </c>
@@ -45444,8 +45843,11 @@
       <c r="C2638" s="4">
         <v>893</v>
       </c>
-    </row>
-    <row r="2639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2639" s="2" t="s">
         <v>2468</v>
       </c>
@@ -45455,8 +45857,11 @@
       <c r="C2639" s="4">
         <v>3198</v>
       </c>
-    </row>
-    <row r="2640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2640" s="2" t="s">
         <v>2469</v>
       </c>
@@ -45466,8 +45871,11 @@
       <c r="C2640" s="4">
         <v>1094</v>
       </c>
-    </row>
-    <row r="2641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2641" s="2" t="s">
         <v>2470</v>
       </c>
@@ -45477,8 +45885,11 @@
       <c r="C2641" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2642" s="2" t="s">
         <v>2471</v>
       </c>
@@ -45488,8 +45899,11 @@
       <c r="C2642" s="4">
         <v>3182</v>
       </c>
-    </row>
-    <row r="2643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2643" s="2" t="s">
         <v>2472</v>
       </c>
@@ -45499,8 +45913,11 @@
       <c r="C2643" s="4">
         <v>1809</v>
       </c>
-    </row>
-    <row r="2644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2644" s="2" t="s">
         <v>2473</v>
       </c>
@@ -45510,8 +45927,11 @@
       <c r="C2644" s="4">
         <v>571</v>
       </c>
-    </row>
-    <row r="2645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2645" s="2" t="s">
         <v>2474</v>
       </c>
@@ -45521,8 +45941,11 @@
       <c r="C2645" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="2646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2646" s="2" t="s">
         <v>2475</v>
       </c>
@@ -45532,8 +45955,11 @@
       <c r="C2646" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="2647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2647" s="2" t="s">
         <v>2476</v>
       </c>
@@ -45543,8 +45969,11 @@
       <c r="C2647" s="4">
         <v>597</v>
       </c>
-    </row>
-    <row r="2648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2648" s="2" t="s">
         <v>2477</v>
       </c>
@@ -45554,8 +45983,11 @@
       <c r="C2648" s="4">
         <v>843</v>
       </c>
-    </row>
-    <row r="2649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2649" s="2" t="s">
         <v>2478</v>
       </c>
@@ -45565,8 +45997,11 @@
       <c r="C2649" s="4">
         <v>119</v>
       </c>
-    </row>
-    <row r="2650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2650" s="2" t="s">
         <v>2479</v>
       </c>
@@ -45576,8 +46011,11 @@
       <c r="C2650" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="2651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2651" s="2" t="s">
         <v>2480</v>
       </c>
@@ -45587,8 +46025,11 @@
       <c r="C2651" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="2652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2652" s="2" t="s">
         <v>2481</v>
       </c>
@@ -45598,8 +46039,11 @@
       <c r="C2652" s="4">
         <v>476</v>
       </c>
-    </row>
-    <row r="2653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2653" s="2" t="s">
         <v>2482</v>
       </c>
@@ -45609,8 +46053,11 @@
       <c r="C2653" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="2654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2654" s="2" t="s">
         <v>2483</v>
       </c>
@@ -45620,8 +46067,11 @@
       <c r="C2654" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="2655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2655" s="2" t="s">
         <v>2484</v>
       </c>
@@ -45631,8 +46081,11 @@
       <c r="C2655" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2656" s="2" t="s">
         <v>2485</v>
       </c>
@@ -45642,8 +46095,11 @@
       <c r="C2656" s="4">
         <v>774</v>
       </c>
-    </row>
-    <row r="2657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2657" s="2" t="s">
         <v>2486</v>
       </c>
@@ -45653,8 +46109,11 @@
       <c r="C2657" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2658" s="2" t="s">
         <v>2487</v>
       </c>
@@ -45664,8 +46123,11 @@
       <c r="C2658" s="4">
         <v>111</v>
       </c>
-    </row>
-    <row r="2659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2659" s="2" t="s">
         <v>2488</v>
       </c>
@@ -45675,8 +46137,11 @@
       <c r="C2659" s="4">
         <v>324</v>
       </c>
-    </row>
-    <row r="2660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2660" s="2" t="s">
         <v>2489</v>
       </c>
@@ -45686,8 +46151,11 @@
       <c r="C2660" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="2661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2661" s="2" t="s">
         <v>2490</v>
       </c>
@@ -45697,69 +46165,8 @@
       <c r="C2661" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="2662" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2662" s="2" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B2662" s="5">
-        <v>66</v>
-      </c>
-      <c r="C2662" s="4">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="2663" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2663" s="2" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B2663" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2663" s="6"/>
-    </row>
-    <row r="2664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2664" s="2" t="s">
-        <v>2493</v>
-      </c>
-      <c r="B2664" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2664" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2665" s="2" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B2665" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C2665" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2666" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2666" s="2" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B2666" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C2666" s="4">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2667" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2667" s="2" t="s">
-        <v>2495</v>
-      </c>
-      <c r="B2667" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2667" s="4">
-        <v>-3</v>
+      <c r="D2661">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
